--- a/manager_bot/app/database/schedule.xlsx
+++ b/manager_bot/app/database/schedule.xlsx
@@ -530,7 +530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -894,6 +894,258 @@
         <v>19</v>
       </c>
       <c r="H10" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>09-09-2024 18:41:25</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>litkevichanastasia</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Anastasiia Lit &amp; Pavlo Borys</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Anna Will</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>45548.375</v>
+      </c>
+      <c r="G11" t="n">
+        <v>25</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>09-09-2024 18:41:25</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>litkevichanastasia</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Anastasiia Lit &amp; Pavlo Borys</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Anna Will</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>45548.41666666666</v>
+      </c>
+      <c r="G12" t="n">
+        <v>25</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>09-09-2024 18:54:48</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>litkevichanastasia</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Pavlo Borys &amp; Pavlo Borys</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Paul Boy</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>45547.41666666666</v>
+      </c>
+      <c r="G13" t="n">
+        <v>19</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>09-09-2024 18:55:11</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>litkevichanastasia</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Pavlo Borys &amp; Pavlo Borys</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Paul Boy</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>45547.33333333334</v>
+      </c>
+      <c r="G14" t="n">
+        <v>19</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>09-09-2024 18:56:06</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>litkevichanastasia</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Valeriia Podolchuk &amp; Anastasiia Lit</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Karen Karmen</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>45550.33333333334</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>UAH</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>09-09-2024 18:56:41</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>litkevichanastasia</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Valeriia Podolchuk &amp; Anastasiia Lit</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Karen Karmen</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>45550.625</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>UAH</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>09-09-2024 18:58:17</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>litkevichanastasia</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Valeriia Podolchuk &amp; Valeriia Podolchuk</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Paul Boy</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>45548.625</v>
+      </c>
+      <c r="G17" t="n">
+        <v>19</v>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
@@ -1409,11 +1661,7 @@
           <t>❌</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Anastasiia Lit &amp; Anastasiia Lit</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>❌</t>
@@ -1477,14 +1725,10 @@
           <t>14:00-15:00</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Anastasiia Lit &amp; Pavlo Borys</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -1519,7 +1763,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -1584,7 +1828,11 @@
           <t>❌</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Anastasiia Lit &amp; Anastasiia Lit</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>❌</t>
@@ -1995,7 +2243,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -2161,7 +2409,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>

--- a/manager_bot/app/database/schedule.xlsx
+++ b/manager_bot/app/database/schedule.xlsx
@@ -9,10 +9,11 @@
   <sheets>
     <sheet name="dancers" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="payments" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="12-09-2024" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="13-09-2024" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="14-09-2024" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="15-09-2024" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="changes" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="12-09-2024" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="13-09-2024" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="14-09-2024" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="15-09-2024" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,17 +466,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pavlo Borys</t>
+          <t>Anastasiia Litkevych</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>pashashev</t>
+          <t>litkevichanastasia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>380503172931</t>
+          <t>380979436650</t>
         </is>
       </c>
     </row>
@@ -485,17 +486,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anastasiia Lit</t>
+          <t>Sasha U</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>litkevichanastasia</t>
+          <t>pashashev</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>380979436650</t>
+          <t>380936250542</t>
         </is>
       </c>
     </row>
@@ -505,17 +506,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Valeriia Podolchuk</t>
+          <t>A A</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>miss_lera_19</t>
+          <t>lviv_winter_ball</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>380954634898</t>
+          <t>380738318796</t>
         </is>
       </c>
     </row>
@@ -1162,7 +1163,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1173,315 +1174,115 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>time_of_change</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>dancer_username</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>couple_name</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>coach_name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>lesson_date</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>lesson_id</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>reason</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>09/23/24-09-2024 13:47</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>pashashev</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Pavlo Borys &amp; Pavlo Borys</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Paul Boy</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Paul Payment Status</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>12-09 10:00 - 11:00</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>I’m lox</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>09/25/24-09-2024 13:48</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>litkevichanastasia</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Anastasiia Litkevych &amp; Pavlo Borys</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Anna Will</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Anna Payment Status</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Warren Boyce</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Warren Payment Status</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Karen Karmen</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Karen Payment Status</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>08:00-09:00</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Pavlo Borys &amp; Pavlo Borys</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>09:00-10:00</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Pavlo Borys &amp; Pavlo Borys</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>10:00-11:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Pavlo Borys &amp; Pavlo Borys</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>11:00-12:00</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Pavlo Borys &amp; Pavlo Borys</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>13:00-14:00</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Anastasiia Lit &amp; Anastasiia Lit</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>14:00-15:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>15:00-16:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Valeriia Podolchuk &amp; Valeriia Podolchuk</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>16:00-17:00</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Valeriia Podolchuk &amp; Valeriia Podolchuk</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>12-09 09:00 - 10:00</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>38</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>щось</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1569,11 +1370,7 @@
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1587,14 +1384,10 @@
           <t>❌</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Anastasiia Lit &amp; Pavlo Borys</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -1604,11 +1397,7 @@
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1622,14 +1411,10 @@
           <t>❌</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Anastasiia Lit &amp; Pavlo Borys</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -1639,11 +1424,7 @@
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1651,11 +1432,7 @@
           <t>11:00-12:00</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Valeriia Podolchuk &amp; Valeriia Podolchuk</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>❌</t>
@@ -1674,11 +1451,7 @@
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1688,19 +1461,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Anastasiia Lit &amp; Pavlo Borys</t>
+          <t>Anastasiia Litkevych &amp; Anastasiia Litkevych</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>✅</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Anastasiia Lit &amp; Anastasiia Lit</t>
-        </is>
-      </c>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>❌</t>
@@ -1713,11 +1482,7 @@
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1744,11 +1509,7 @@
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1756,14 +1517,10 @@
           <t>15:00-16:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Valeriia Podolchuk &amp; Valeriia Podolchuk</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -1772,18 +1529,18 @@
           <t>❌</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sasha U &amp; Sasha U</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>❌</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1810,11 +1567,7 @@
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1828,28 +1581,24 @@
           <t>❌</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Anastasiia Lit &amp; Anastasiia Lit</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>❌</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sasha U &amp; Sasha U</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>❌</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
+      <c r="I10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1937,7 +1686,11 @@
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1954,7 +1707,7 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -1964,7 +1717,11 @@
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1981,7 +1738,7 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -1991,7 +1748,11 @@
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1999,7 +1760,11 @@
           <t>11:00-12:00</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sasha U &amp; Sasha U</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>❌</t>
@@ -2018,7 +1783,11 @@
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2029,10 +1798,14 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Anastasiia Litkevych &amp; Anastasiia Litkevych</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>❌</t>
@@ -2045,7 +1818,11 @@
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2072,7 +1849,11 @@
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -2080,10 +1861,14 @@
           <t>15:00-16:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sasha U &amp; Sasha U</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -2099,7 +1884,11 @@
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2126,7 +1915,11 @@
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2140,7 +1933,11 @@
           <t>❌</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Anastasiia Litkevych &amp; Anastasiia Litkevych</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>❌</t>
@@ -2153,7 +1950,11 @@
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2229,6 +2030,310 @@
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>09:00-10:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>11:00-12:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>13:00-14:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>14:00-15:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>15:00-16:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>16:00-17:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Paul Boy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Paul Payment Status</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Anna Will</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Anna Payment Status</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Warren Boyce</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Warren Payment Status</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Karen Karmen</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Karen Payment Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>08:00-09:00</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
@@ -2238,7 +2343,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Valeriia Podolchuk &amp; Anastasiia Lit</t>
+          <t>Sasha U &amp; Anastasiia Litkevych</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2404,7 +2509,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Valeriia Podolchuk &amp; Anastasiia Lit</t>
+          <t>Sasha U &amp; Anastasiia Litkevych</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2435,7 +2540,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Valeriia Podolchuk &amp; Anastasiia Lit</t>
+          <t>Sasha U &amp; Anastasiia Litkevych</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2458,7 +2563,11 @@
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sasha U &amp; Sasha U</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>❌</t>

--- a/manager_bot/app/database/schedule.xlsx
+++ b/manager_bot/app/database/schedule.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="dancers" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="payments" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="changes" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="cancelations" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="12-09-2024" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="13-09-2024" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="14-09-2024" sheetId="6" state="visible" r:id="rId6"/>
@@ -1295,7 +1295,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1334,16 +1334,6 @@
           <t>Warren Payment Status</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Karen Karmen</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Karen Payment Status</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1363,14 +1353,16 @@
           <t>❌</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Sasha U &amp; Sasha U</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>❌</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1390,14 +1382,16 @@
           <t>❌</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Sasha U &amp; Sasha U</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>❌</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1411,7 +1405,11 @@
           <t>❌</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Sasha U &amp; Sasha U</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>❌</t>
@@ -1423,8 +1421,6 @@
           <t>❌</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1450,8 +1446,6 @@
           <t>❌</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1459,11 +1453,7 @@
           <t>13:00-14:00</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Anastasiia Litkevych &amp; Anastasiia Litkevych</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>❌</t>
@@ -1475,14 +1465,16 @@
           <t>❌</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sasha U &amp; Sasha U</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
           <t>❌</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1496,7 +1488,11 @@
           <t>❌</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Sasha U &amp; Sasha U</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>❌</t>
@@ -1508,8 +1504,6 @@
           <t>❌</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1539,8 +1533,6 @@
           <t>❌</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1554,7 +1546,11 @@
           <t>❌</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Sasha U &amp; Sasha U</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>❌</t>
@@ -1566,8 +1562,6 @@
           <t>❌</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1587,18 +1581,12 @@
           <t>❌</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Sasha U &amp; Sasha U</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
           <t>❌</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1667,7 +1655,11 @@
           <t>08:00-09:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sasha U &amp; Sasha U</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>❌</t>
@@ -1707,7 +1699,7 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -1716,7 +1708,11 @@
           <t>❌</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Sasha U &amp; Sasha U</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>❌</t>
@@ -1738,7 +1734,7 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -1747,7 +1743,11 @@
           <t>❌</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sasha U &amp; Sasha U</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>❌</t>
@@ -1798,14 +1798,10 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>✅</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Anastasiia Litkevych &amp; Anastasiia Litkevych</t>
-        </is>
-      </c>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>❌</t>
@@ -1830,7 +1826,11 @@
           <t>14:00-15:00</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sasha U &amp; Sasha U</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>❌</t>
@@ -1861,14 +1861,10 @@
           <t>15:00-16:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Sasha U &amp; Sasha U</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -1914,7 +1910,11 @@
           <t>❌</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Sasha U &amp; Sasha U</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>❌</t>
@@ -1927,17 +1927,17 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sasha U &amp; Sasha U</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>❌</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Anastasiia Litkevych &amp; Anastasiia Litkevych</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>❌</t>
@@ -2029,7 +2029,11 @@
           <t>❌</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Sasha U &amp; Sasha U</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>❌</t>
@@ -2042,7 +2046,11 @@
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2068,8 +2076,16 @@
           <t>❌</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Sasha U &amp; Sasha U</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2095,8 +2111,16 @@
           <t>❌</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sasha U &amp; Sasha U</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -2123,7 +2147,11 @@
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2150,7 +2178,11 @@
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2164,7 +2196,11 @@
           <t>❌</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Sasha U &amp; Sasha U</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>❌</t>
@@ -2177,7 +2213,11 @@
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -2204,7 +2244,11 @@
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2230,8 +2274,16 @@
           <t>❌</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Sasha U &amp; Sasha U</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2258,7 +2310,11 @@
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2333,22 +2389,26 @@
           <t>❌</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Sasha U &amp; Sasha U</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
           <t>❌</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Sasha U &amp; Anastasiia Litkevych</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2425,11 @@
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
@@ -2392,7 +2456,11 @@
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
@@ -2419,7 +2487,11 @@
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
@@ -2446,7 +2518,11 @@
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
@@ -2472,8 +2548,16 @@
           <t>❌</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Sasha U &amp; Sasha U</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
@@ -2500,21 +2584,21 @@
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
           <t>❌</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Sasha U &amp; Anastasiia Litkevych</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -2531,21 +2615,21 @@
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
           <t>❌</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Sasha U &amp; Anastasiia Litkevych</t>
-        </is>
-      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -2562,12 +2646,12 @@
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Sasha U &amp; Sasha U</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
           <t>❌</t>

--- a/manager_bot/app/database/schedule.xlsx
+++ b/manager_bot/app/database/schedule.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="331">
   <si>
     <t>full_name</t>
   </si>
@@ -735,6 +735,21 @@
     <t>08-10-2024 16:35:18</t>
   </si>
   <si>
+    <t>03-12-2024 08:59:43</t>
+  </si>
+  <si>
+    <t>03-12-2024 09:09:58</t>
+  </si>
+  <si>
+    <t>03-12-2024 09:12:27</t>
+  </si>
+  <si>
+    <t>03-12-2024 20:39:29</t>
+  </si>
+  <si>
+    <t>03-12-2024 20:40:41</t>
+  </si>
+  <si>
     <t>Pavlo Borys &amp; Pavlo Borys</t>
   </si>
   <si>
@@ -750,6 +765,15 @@
     <t>Ryabuha Oleksandra &amp; Andrii Zinchenko</t>
   </si>
   <si>
+    <t xml:space="preserve"> Boitsova Polina &amp; Tykhyi Bogdan</t>
+  </si>
+  <si>
+    <t>Palidovych Mykola &amp; Marta Chuhray</t>
+  </si>
+  <si>
+    <t>Olena Boiko &amp; Yevhenii Borushko</t>
+  </si>
+  <si>
     <t>Paul Boy</t>
   </si>
   <si>
@@ -762,6 +786,24 @@
     <t>Marek Kosaty</t>
   </si>
   <si>
+    <t>Valerio Colantoni</t>
+  </si>
+  <si>
+    <t>Stephen Hannah</t>
+  </si>
+  <si>
+    <t>Sergiu Rusu</t>
+  </si>
+  <si>
+    <t>Olexandr Bezkrovniy</t>
+  </si>
+  <si>
+    <t>Masha Savchuk</t>
+  </si>
+  <si>
+    <t>Jurij Batagelj</t>
+  </si>
+  <si>
     <t>USD</t>
   </si>
   <si>
@@ -771,6 +813,9 @@
     <t>EUR</t>
   </si>
   <si>
+    <t>GBP</t>
+  </si>
+  <si>
     <t>time_of_change</t>
   </si>
   <si>
@@ -801,6 +846,9 @@
     <t>10/19/24-10-2024 10:17</t>
   </si>
   <si>
+    <t>11/26/24-11-2024 18:50</t>
+  </si>
+  <si>
     <t>Anastasiia Litkevych &amp; Pavlo Borys</t>
   </si>
   <si>
@@ -810,12 +858,18 @@
     <t>Oliunyk Bohaychuk  &amp; Mariana Bryk</t>
   </si>
   <si>
+    <t xml:space="preserve">Anastasiia Litkevych &amp; Artur Turishev </t>
+  </si>
+  <si>
     <t>Annette Sudol</t>
   </si>
   <si>
     <t>Igor Yaremenko</t>
   </si>
   <si>
+    <t>test test</t>
+  </si>
+  <si>
     <t>12-09 10:00 - 11:00</t>
   </si>
   <si>
@@ -834,6 +888,12 @@
     <t>05-12 09:15 Mariia Yur</t>
   </si>
   <si>
+    <t>07-12 08:30 Valerio Colantoni</t>
+  </si>
+  <si>
+    <t>09-12 07:45 test test</t>
+  </si>
+  <si>
     <t>I’m lox</t>
   </si>
   <si>
@@ -846,12 +906,15 @@
     <t>-</t>
   </si>
   <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Ha</t>
+  </si>
+  <si>
     <t>Marek Payment Status</t>
   </si>
   <si>
-    <t>Valerio Colantoni</t>
-  </si>
-  <si>
     <t>Valerio Payment Status</t>
   </si>
   <si>
@@ -900,57 +963,18 @@
     <t>19:00-19:45</t>
   </si>
   <si>
-    <t xml:space="preserve">Not Available  &amp; Not Available </t>
+    <t>Test Test &amp; Test Test</t>
   </si>
   <si>
     <t>Blocked ⚠️</t>
   </si>
   <si>
-    <t>Anna Kozicka &amp; Vologymyr Griner</t>
-  </si>
-  <si>
-    <t>Palidovych Mykola &amp; Marta Chuhray</t>
-  </si>
-  <si>
-    <t>Tychuk Matviei &amp; Zlatoslava Tatarikova</t>
-  </si>
-  <si>
     <t>❌</t>
   </si>
   <si>
-    <t xml:space="preserve"> Boitsova Polina &amp; Tykhyi Bogdan</t>
-  </si>
-  <si>
-    <t>Yaroslav Nikitenko &amp; Yaroslav Nikitenko</t>
-  </si>
-  <si>
-    <t>Pletnov Oleksiy &amp; Olena Pletnova</t>
-  </si>
-  <si>
-    <t>Stephen Hannah</t>
-  </si>
-  <si>
     <t>Stephen Payment Status</t>
   </si>
   <si>
-    <t>Zayets Maksym Blazevsjka Karolina  &amp; Mariana Bryk</t>
-  </si>
-  <si>
-    <t>Bezkorovaynuy Stasjyk  &amp; Mariana Bryk</t>
-  </si>
-  <si>
-    <t>Shmyrov Serhii &amp; Kateryna Voronaya</t>
-  </si>
-  <si>
-    <t>Striletsky Roma Bulvarenko Violetta &amp; Mariana Bryk</t>
-  </si>
-  <si>
-    <t>Vasyliuk Ivan &amp; Sofia Kaletynska</t>
-  </si>
-  <si>
-    <t>Davyd Komarnytskiy &amp; Angelina Cherkovska</t>
-  </si>
-  <si>
     <t>Arunas Bizokas</t>
   </si>
   <si>
@@ -978,9 +1002,6 @@
     <t>Dora Payment Status</t>
   </si>
   <si>
-    <t>Masha Savchuk</t>
-  </si>
-  <si>
     <t>Masha Payment Status</t>
   </si>
   <si>
@@ -990,70 +1011,7 @@
     <t>Marko Payment Status</t>
   </si>
   <si>
-    <t>Olexandr Bezkrovniy</t>
-  </si>
-  <si>
     <t>Olexandr Payment Status</t>
-  </si>
-  <si>
-    <t>Vitalii Grygorovych &amp; Rakytska Daria</t>
-  </si>
-  <si>
-    <t>Artem Hryschenko &amp; Vitalina Kolba</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nikita Kholyavko &amp; Ulyana Shmalenyuk</t>
-  </si>
-  <si>
-    <t>Shvurlo Melnuchyk &amp; Mariana Bryk</t>
-  </si>
-  <si>
-    <t>Beley Anna &amp; Mariana Bryk</t>
-  </si>
-  <si>
-    <t>Bogdan Julia  &amp; Tetiana Balla</t>
-  </si>
-  <si>
-    <t>Alina Grechkosij &amp; Alina Grechkosij</t>
-  </si>
-  <si>
-    <t>Timofey Chernenko &amp; Timofey Chernenko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vladislava Vladabarbie  &amp; Vladislava Vladabarbie </t>
-  </si>
-  <si>
-    <t>Vitaliy Erfan &amp; Viktoriya Zaprudska</t>
-  </si>
-  <si>
-    <t>Ivanyk Ivan &amp; Valeria Derkach</t>
-  </si>
-  <si>
-    <t>Nazar Mira  &amp; Tetiana Balla</t>
-  </si>
-  <si>
-    <t>Ihor Sofia  &amp; Mullyar Olexandr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anastasiia Litkevych &amp; Artur Turishev </t>
-  </si>
-  <si>
-    <t>Zayets Lukian Gavrulyk Annaliza  &amp; Mariana Bryk</t>
-  </si>
-  <si>
-    <t>Igor Reznik &amp; Lika Dikaya</t>
-  </si>
-  <si>
-    <t>Kateryna Petrushevska &amp; Kateryna Petrushevska</t>
-  </si>
-  <si>
-    <t>Test Test &amp; Olena B</t>
-  </si>
-  <si>
-    <t>Anastasiia Litkevych &amp; Anastasiia Litkevych</t>
-  </si>
-  <si>
-    <t>Sazanov  &amp; Karolina Rybak</t>
   </si>
 </sst>
 </file>
@@ -2953,7 +2911,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2993,10 +2951,10 @@
         <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="F2" s="2">
         <v>45547.33333333334</v>
@@ -3005,7 +2963,7 @@
         <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3019,10 +2977,10 @@
         <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E3" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="F3" s="2">
         <v>45547.41666666666</v>
@@ -3031,7 +2989,7 @@
         <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3045,10 +3003,10 @@
         <v>114</v>
       </c>
       <c r="D4" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E4" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="F4" s="2">
         <v>45547.33333333334</v>
@@ -3057,7 +3015,7 @@
         <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3071,10 +3029,10 @@
         <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E5" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="F5" s="2">
         <v>45547.375</v>
@@ -3083,7 +3041,7 @@
         <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3097,10 +3055,10 @@
         <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E6" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="F6" s="2">
         <v>45550.66666666666</v>
@@ -3109,7 +3067,7 @@
         <v>5000</v>
       </c>
       <c r="H6" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3123,10 +3081,10 @@
         <v>114</v>
       </c>
       <c r="D7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="F7" s="2">
         <v>45548.375</v>
@@ -3135,7 +3093,7 @@
         <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3149,10 +3107,10 @@
         <v>114</v>
       </c>
       <c r="D8" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E8" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="F8" s="2">
         <v>45548.41666666666</v>
@@ -3161,7 +3119,7 @@
         <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3175,10 +3133,10 @@
         <v>114</v>
       </c>
       <c r="D9" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E9" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="F9" s="2">
         <v>45548.58333333334</v>
@@ -3187,7 +3145,7 @@
         <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3201,10 +3159,10 @@
         <v>114</v>
       </c>
       <c r="D10" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E10" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="F10" s="2">
         <v>45548.54166666666</v>
@@ -3213,7 +3171,7 @@
         <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3227,10 +3185,10 @@
         <v>114</v>
       </c>
       <c r="D11" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E11" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="F11" s="2">
         <v>45548.375</v>
@@ -3239,7 +3197,7 @@
         <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3253,10 +3211,10 @@
         <v>114</v>
       </c>
       <c r="D12" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E12" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="F12" s="2">
         <v>45548.41666666666</v>
@@ -3265,7 +3223,7 @@
         <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3279,10 +3237,10 @@
         <v>114</v>
       </c>
       <c r="D13" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E13" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="F13" s="2">
         <v>45547.41666666666</v>
@@ -3291,7 +3249,7 @@
         <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3305,10 +3263,10 @@
         <v>114</v>
       </c>
       <c r="D14" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E14" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="F14" s="2">
         <v>45547.33333333334</v>
@@ -3317,7 +3275,7 @@
         <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3331,10 +3289,10 @@
         <v>114</v>
       </c>
       <c r="D15" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E15" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="F15" s="2">
         <v>45550.33333333334</v>
@@ -3343,7 +3301,7 @@
         <v>5000</v>
       </c>
       <c r="H15" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3357,10 +3315,10 @@
         <v>114</v>
       </c>
       <c r="D16" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E16" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="F16" s="2">
         <v>45550.625</v>
@@ -3369,7 +3327,7 @@
         <v>5000</v>
       </c>
       <c r="H16" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3383,10 +3341,10 @@
         <v>114</v>
       </c>
       <c r="D17" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E17" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="F17" s="2">
         <v>45548.625</v>
@@ -3395,7 +3353,7 @@
         <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3409,10 +3367,10 @@
         <v>111</v>
       </c>
       <c r="D18" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E18" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="F18" s="2">
         <v>45629.48958333334</v>
@@ -3421,7 +3379,553 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>238</v>
+      </c>
+      <c r="C19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" t="s">
+        <v>248</v>
+      </c>
+      <c r="E19" t="s">
+        <v>255</v>
+      </c>
+      <c r="F19" s="2">
+        <v>45628.5625</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>238</v>
+      </c>
+      <c r="C20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" t="s">
+        <v>248</v>
+      </c>
+      <c r="E20" t="s">
+        <v>255</v>
+      </c>
+      <c r="F20" s="2">
+        <v>45628.59375</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>239</v>
+      </c>
+      <c r="C21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" t="s">
+        <v>248</v>
+      </c>
+      <c r="E21" t="s">
+        <v>255</v>
+      </c>
+      <c r="F21" s="2">
+        <v>45628.5625</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>239</v>
+      </c>
+      <c r="C22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" t="s">
+        <v>248</v>
+      </c>
+      <c r="E22" t="s">
+        <v>255</v>
+      </c>
+      <c r="F22" s="2">
+        <v>45628.59375</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>239</v>
+      </c>
+      <c r="C23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" t="s">
+        <v>248</v>
+      </c>
+      <c r="E23" t="s">
+        <v>255</v>
+      </c>
+      <c r="F23" s="2">
+        <v>45628.69791666666</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>239</v>
+      </c>
+      <c r="C24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" t="s">
+        <v>248</v>
+      </c>
+      <c r="E24" t="s">
+        <v>255</v>
+      </c>
+      <c r="F24" s="2">
+        <v>45628.72916666666</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" t="s">
+        <v>248</v>
+      </c>
+      <c r="E25" t="s">
+        <v>256</v>
+      </c>
+      <c r="F25" s="2">
+        <v>45629.59375</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>239</v>
+      </c>
+      <c r="C26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" t="s">
+        <v>248</v>
+      </c>
+      <c r="E26" t="s">
+        <v>256</v>
+      </c>
+      <c r="F26" s="2">
+        <v>45629.625</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>239</v>
+      </c>
+      <c r="C27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" t="s">
+        <v>248</v>
+      </c>
+      <c r="E27" t="s">
+        <v>254</v>
+      </c>
+      <c r="F27" s="2">
+        <v>45629.66666666666</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="H27" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>239</v>
+      </c>
+      <c r="C28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" t="s">
+        <v>248</v>
+      </c>
+      <c r="E28" t="s">
+        <v>254</v>
+      </c>
+      <c r="F28" s="2">
+        <v>45629.69791666666</v>
+      </c>
+      <c r="G28">
+        <v>10</v>
+      </c>
+      <c r="H28" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>239</v>
+      </c>
+      <c r="C29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" t="s">
+        <v>248</v>
+      </c>
+      <c r="E29" t="s">
+        <v>257</v>
+      </c>
+      <c r="F29" s="2">
+        <v>45630.52083333334</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>239</v>
+      </c>
+      <c r="C30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" t="s">
+        <v>248</v>
+      </c>
+      <c r="E30" t="s">
+        <v>257</v>
+      </c>
+      <c r="F30" s="2">
+        <v>45631.625</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>239</v>
+      </c>
+      <c r="C31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" t="s">
+        <v>248</v>
+      </c>
+      <c r="E31" t="s">
+        <v>258</v>
+      </c>
+      <c r="F31" s="2">
+        <v>45632.38541666666</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>239</v>
+      </c>
+      <c r="C32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" t="s">
+        <v>248</v>
+      </c>
+      <c r="E32" t="s">
+        <v>258</v>
+      </c>
+      <c r="F32" s="2">
+        <v>45632.41666666666</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>239</v>
+      </c>
+      <c r="C33" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" t="s">
+        <v>248</v>
+      </c>
+      <c r="E33" t="s">
+        <v>259</v>
+      </c>
+      <c r="F33" s="2">
+        <v>45632.47916666666</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>239</v>
+      </c>
+      <c r="C34" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" t="s">
+        <v>248</v>
+      </c>
+      <c r="E34" t="s">
+        <v>259</v>
+      </c>
+      <c r="F34" s="2">
+        <v>45632.51041666666</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>240</v>
+      </c>
+      <c r="C35" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" t="s">
         <v>249</v>
+      </c>
+      <c r="E35" t="s">
+        <v>255</v>
+      </c>
+      <c r="F35" s="2">
+        <v>45628.52083333334</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>241</v>
+      </c>
+      <c r="C36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" t="s">
+        <v>250</v>
+      </c>
+      <c r="E36" t="s">
+        <v>260</v>
+      </c>
+      <c r="F36" s="2">
+        <v>45631.41666666666</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>242</v>
+      </c>
+      <c r="C37" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" t="s">
+        <v>248</v>
+      </c>
+      <c r="E37" t="s">
+        <v>255</v>
+      </c>
+      <c r="F37" s="2">
+        <v>45628.5625</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>242</v>
+      </c>
+      <c r="C38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" t="s">
+        <v>248</v>
+      </c>
+      <c r="E38" t="s">
+        <v>255</v>
+      </c>
+      <c r="F38" s="2">
+        <v>45628.59375</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>242</v>
+      </c>
+      <c r="C39" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" t="s">
+        <v>248</v>
+      </c>
+      <c r="E39" t="s">
+        <v>259</v>
+      </c>
+      <c r="F39" s="2">
+        <v>45632.47916666666</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3431,7 +3935,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3439,10 +3943,10 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>222</v>
@@ -3454,10 +3958,10 @@
         <v>224</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3465,25 +3969,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="C2" t="s">
         <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="F2" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3491,25 +3995,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="C3" t="s">
         <v>114</v>
       </c>
       <c r="D3" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="E3" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="F3" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="G3">
         <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3517,25 +4021,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="C4" t="s">
         <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="E4" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="F4" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="G4">
         <v>146</v>
       </c>
       <c r="H4" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3543,25 +4047,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="C5" t="s">
         <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="E5" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="F5" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="G5">
         <v>147</v>
       </c>
       <c r="H5" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3569,25 +4073,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="C6" t="s">
         <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="E6" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="F6" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="G6">
         <v>825</v>
       </c>
       <c r="H6" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3595,25 +4099,77 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="C7" t="s">
         <v>114</v>
       </c>
       <c r="D7" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="E7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="F7" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="G7">
         <v>1263</v>
       </c>
       <c r="H7" t="s">
-        <v>274</v>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" t="s">
+        <v>279</v>
+      </c>
+      <c r="E8" t="s">
+        <v>255</v>
+      </c>
+      <c r="F8" t="s">
+        <v>289</v>
+      </c>
+      <c r="G8">
+        <v>386</v>
+      </c>
+      <c r="H8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" t="s">
+        <v>279</v>
+      </c>
+      <c r="E9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F9" t="s">
+        <v>290</v>
+      </c>
+      <c r="G9">
+        <v>1312</v>
+      </c>
+      <c r="H9" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -3631,268 +4187,208 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="B2" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="C2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D2" t="s">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="E2" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="B3" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="C3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D3" t="s">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="E3" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>280</v>
+        <v>301</v>
+      </c>
+      <c r="B4" t="s">
+        <v>314</v>
       </c>
       <c r="C4" t="s">
-        <v>298</v>
-      </c>
-      <c r="D4" t="s">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="E4" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B5" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="C5" t="s">
-        <v>298</v>
-      </c>
-      <c r="D5" t="s">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="E5" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B6" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="C6" t="s">
-        <v>298</v>
-      </c>
-      <c r="D6" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="E6" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B7" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="C7" t="s">
-        <v>298</v>
-      </c>
-      <c r="D7" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="E7" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B8" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="C8" t="s">
-        <v>298</v>
-      </c>
-      <c r="D8" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="E8" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B9" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="C9" t="s">
-        <v>298</v>
-      </c>
-      <c r="D9" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="E9" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B10" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="C10" t="s">
-        <v>298</v>
-      </c>
-      <c r="D10" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="E10" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B11" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="C11" t="s">
-        <v>298</v>
-      </c>
-      <c r="D11" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="E11" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B12" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="C12" t="s">
-        <v>298</v>
-      </c>
-      <c r="D12" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="E12" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B13" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="C13" t="s">
-        <v>298</v>
-      </c>
-      <c r="D13" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="E13" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="B14" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="C14" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="D14" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="E14" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="B15" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="C15" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="D15" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="E15" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="B16" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="C16" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="D16" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="E16" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -3910,310 +4406,235 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>302</v>
+        <v>256</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B2" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D2" t="s">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="E2" t="s">
-        <v>298</v>
-      </c>
-      <c r="F2" t="s">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="G2" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C3" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="E3" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="G3" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C4" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="E4" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="G4" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C5" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="E5" t="s">
-        <v>298</v>
-      </c>
-      <c r="F5" t="s">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="G5" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C6" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="E6" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="G6" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B7" t="s">
-        <v>242</v>
+        <v>304</v>
       </c>
       <c r="C7" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="E7" t="s">
-        <v>298</v>
-      </c>
-      <c r="F7" t="s">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="G7" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B8" t="s">
-        <v>242</v>
+        <v>305</v>
       </c>
       <c r="C8" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="E8" t="s">
-        <v>298</v>
-      </c>
-      <c r="F8" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="G8" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C9" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="E9" t="s">
-        <v>298</v>
-      </c>
-      <c r="F9" t="s">
-        <v>242</v>
+        <v>316</v>
       </c>
       <c r="G9" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B10" t="s">
         <v>307</v>
       </c>
       <c r="C10" t="s">
-        <v>298</v>
-      </c>
-      <c r="D10" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="E10" t="s">
-        <v>298</v>
-      </c>
-      <c r="F10" t="s">
-        <v>242</v>
+        <v>316</v>
       </c>
       <c r="G10" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B11" t="s">
         <v>308</v>
       </c>
       <c r="C11" t="s">
-        <v>298</v>
-      </c>
-      <c r="D11" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="E11" t="s">
-        <v>298</v>
-      </c>
-      <c r="F11" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="G11" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B12" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="C12" t="s">
-        <v>298</v>
-      </c>
-      <c r="D12" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="E12" t="s">
-        <v>298</v>
-      </c>
-      <c r="F12" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="G12" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B13" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C13" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="E13" t="s">
-        <v>298</v>
-      </c>
-      <c r="F13" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="G13" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="B14" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C14" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="E14" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="G14" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="C15" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="E15" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="G15" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="C16" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="E16" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="G16" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -4231,775 +4652,736 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="B1" s="1" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>319</v>
+        <v>259</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>323</v>
+        <v>258</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B2" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C2" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="D2" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="E2" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="F2" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="G2" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="H2" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="I2" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="J2" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="K2" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="L2" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="M2" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="N2" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="O2" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="P2" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="Q2" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="R2" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="S2" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="T2" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="U2" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="V2" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="W2" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B3" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="C3" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="D3" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="E3" t="s">
-        <v>298</v>
-      </c>
-      <c r="F3" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="G3" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="I3" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="K3" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="M3" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="O3" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="P3" t="s">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="Q3" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="R3" t="s">
-        <v>261</v>
+        <v>315</v>
       </c>
       <c r="S3" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="U3" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="V3" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="W3" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B4" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="C4" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="D4" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="E4" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="F4" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="G4" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="I4" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="K4" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="M4" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="O4" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="Q4" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="R4" t="s">
-        <v>261</v>
+        <v>315</v>
       </c>
       <c r="S4" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="U4" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="W4" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B5" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="C5" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="D5" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="E5" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="F5" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="G5" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="I5" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="K5" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="M5" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="O5" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="Q5" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="S5" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="T5" t="s">
-        <v>261</v>
+        <v>315</v>
       </c>
       <c r="U5" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="W5" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B6" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="C6" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="D6" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="E6" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="F6" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="G6" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="I6" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="K6" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="M6" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="O6" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="Q6" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="R6" t="s">
-        <v>261</v>
+        <v>315</v>
       </c>
       <c r="S6" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="U6" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="V6" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="W6" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B7" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="C7" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="D7" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="E7" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="F7" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="G7" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="I7" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="K7" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="L7" t="s">
-        <v>261</v>
+        <v>315</v>
       </c>
       <c r="M7" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="O7" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="Q7" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="S7" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="U7" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="V7" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="W7" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B8" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="C8" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="D8" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="E8" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="F8" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="G8" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="H8" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="I8" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="J8" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="K8" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="M8" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="O8" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="Q8" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="R8" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="S8" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="U8" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="W8" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B9" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="C9" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="D9" t="s">
-        <v>242</v>
+        <v>315</v>
       </c>
       <c r="E9" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="F9" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="G9" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="I9" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="K9" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="L9" t="s">
-        <v>261</v>
+        <v>315</v>
       </c>
       <c r="M9" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="O9" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="Q9" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="S9" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="U9" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="W9" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B10" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="C10" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="D10" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="E10" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="F10" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="G10" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="I10" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="K10" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="M10" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="O10" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="Q10" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="R10" t="s">
-        <v>261</v>
+        <v>315</v>
       </c>
       <c r="S10" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="U10" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="V10" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="W10" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B11" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="C11" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="D11" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="E11" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="F11" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="G11" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="H11" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="I11" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="J11" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="K11" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="L11" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="M11" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="N11" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="O11" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="P11" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="Q11" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="R11" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="S11" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="T11" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="U11" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="V11" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="W11" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B12" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="C12" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="D12" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="E12" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="F12" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="G12" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="H12" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="I12" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="J12" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="K12" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="L12" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="M12" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="N12" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="O12" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="P12" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="Q12" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="R12" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="S12" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="T12" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="U12" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="V12" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="W12" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B13" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="C13" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="D13" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="E13" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="F13" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="G13" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="H13" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="I13" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="J13" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="K13" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="L13" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="M13" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="N13" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="O13" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="P13" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="Q13" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="R13" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="S13" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="T13" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="U13" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="V13" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="W13" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/manager_bot/app/database/schedule.xlsx
+++ b/manager_bot/app/database/schedule.xlsx
@@ -10,16 +10,13 @@
     <sheet name="dancers" sheetId="1" r:id="rId1"/>
     <sheet name="payments" sheetId="2" r:id="rId2"/>
     <sheet name="cancelations" sheetId="3" r:id="rId3"/>
-    <sheet name="02-12-2024" sheetId="4" r:id="rId4"/>
-    <sheet name="03-12-2024" sheetId="5" r:id="rId5"/>
-    <sheet name="07-12-2024" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="301">
   <si>
     <t>full_name</t>
   </si>
@@ -750,6 +747,15 @@
     <t>03-12-2024 20:40:41</t>
   </si>
   <si>
+    <t>08-02-2025 15:57:30</t>
+  </si>
+  <si>
+    <t>08-02-2025 17:02:28</t>
+  </si>
+  <si>
+    <t>08-02-2025 17:02:57</t>
+  </si>
+  <si>
     <t>Pavlo Borys &amp; Pavlo Borys</t>
   </si>
   <si>
@@ -804,6 +810,9 @@
     <t>Jurij Batagelj</t>
   </si>
   <si>
+    <t>Evgeniy Kvitka</t>
+  </si>
+  <si>
     <t>USD</t>
   </si>
   <si>
@@ -910,108 +919,6 @@
   </si>
   <si>
     <t>Ha</t>
-  </si>
-  <si>
-    <t>Marek Payment Status</t>
-  </si>
-  <si>
-    <t>Valerio Payment Status</t>
-  </si>
-  <si>
-    <t>07:45-08:30</t>
-  </si>
-  <si>
-    <t>08:30-09:15</t>
-  </si>
-  <si>
-    <t>09:15-10:00</t>
-  </si>
-  <si>
-    <t>10:00-10:45</t>
-  </si>
-  <si>
-    <t>11:00-11:45</t>
-  </si>
-  <si>
-    <t>11:45-12:30</t>
-  </si>
-  <si>
-    <t>12:30-13:15</t>
-  </si>
-  <si>
-    <t>13:30-14:15</t>
-  </si>
-  <si>
-    <t>14:15-15:00</t>
-  </si>
-  <si>
-    <t>15:00-15:45</t>
-  </si>
-  <si>
-    <t>16:00-16:45</t>
-  </si>
-  <si>
-    <t>16:45-17:30</t>
-  </si>
-  <si>
-    <t>17:30-18:15</t>
-  </si>
-  <si>
-    <t>18:15-19:00</t>
-  </si>
-  <si>
-    <t>19:00-19:45</t>
-  </si>
-  <si>
-    <t>Test Test &amp; Test Test</t>
-  </si>
-  <si>
-    <t>Blocked ⚠️</t>
-  </si>
-  <si>
-    <t>❌</t>
-  </si>
-  <si>
-    <t>Stephen Payment Status</t>
-  </si>
-  <si>
-    <t>Arunas Bizokas</t>
-  </si>
-  <si>
-    <t>Arunas Payment Status</t>
-  </si>
-  <si>
-    <t>Lika Payment Status</t>
-  </si>
-  <si>
-    <t>Igor Payment Status</t>
-  </si>
-  <si>
-    <t>Annette Payment Status</t>
-  </si>
-  <si>
-    <t>Simone Segatori</t>
-  </si>
-  <si>
-    <t>Simone Payment Status</t>
-  </si>
-  <si>
-    <t>Dora Kilin</t>
-  </si>
-  <si>
-    <t>Dora Payment Status</t>
-  </si>
-  <si>
-    <t>Masha Payment Status</t>
-  </si>
-  <si>
-    <t>Marko Sirocchi</t>
-  </si>
-  <si>
-    <t>Marko Payment Status</t>
-  </si>
-  <si>
-    <t>Olexandr Payment Status</t>
   </si>
 </sst>
 </file>
@@ -2911,7 +2818,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2951,10 +2858,10 @@
         <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F2" s="2">
         <v>45547.33333333334</v>
@@ -2963,7 +2870,7 @@
         <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2977,10 +2884,10 @@
         <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F3" s="2">
         <v>45547.41666666666</v>
@@ -2989,7 +2896,7 @@
         <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3003,10 +2910,10 @@
         <v>114</v>
       </c>
       <c r="D4" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E4" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F4" s="2">
         <v>45547.33333333334</v>
@@ -3015,7 +2922,7 @@
         <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3029,10 +2936,10 @@
         <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F5" s="2">
         <v>45547.375</v>
@@ -3041,7 +2948,7 @@
         <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3055,10 +2962,10 @@
         <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E6" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F6" s="2">
         <v>45550.66666666666</v>
@@ -3067,7 +2974,7 @@
         <v>5000</v>
       </c>
       <c r="H6" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3081,10 +2988,10 @@
         <v>114</v>
       </c>
       <c r="D7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F7" s="2">
         <v>45548.375</v>
@@ -3093,7 +3000,7 @@
         <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3107,10 +3014,10 @@
         <v>114</v>
       </c>
       <c r="D8" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E8" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F8" s="2">
         <v>45548.41666666666</v>
@@ -3119,7 +3026,7 @@
         <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3133,10 +3040,10 @@
         <v>114</v>
       </c>
       <c r="D9" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E9" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F9" s="2">
         <v>45548.58333333334</v>
@@ -3145,7 +3052,7 @@
         <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3159,10 +3066,10 @@
         <v>114</v>
       </c>
       <c r="D10" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E10" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F10" s="2">
         <v>45548.54166666666</v>
@@ -3171,7 +3078,7 @@
         <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3185,10 +3092,10 @@
         <v>114</v>
       </c>
       <c r="D11" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E11" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F11" s="2">
         <v>45548.375</v>
@@ -3197,7 +3104,7 @@
         <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3211,10 +3118,10 @@
         <v>114</v>
       </c>
       <c r="D12" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E12" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F12" s="2">
         <v>45548.41666666666</v>
@@ -3223,7 +3130,7 @@
         <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3237,10 +3144,10 @@
         <v>114</v>
       </c>
       <c r="D13" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E13" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F13" s="2">
         <v>45547.41666666666</v>
@@ -3249,7 +3156,7 @@
         <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3263,10 +3170,10 @@
         <v>114</v>
       </c>
       <c r="D14" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E14" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F14" s="2">
         <v>45547.33333333334</v>
@@ -3275,7 +3182,7 @@
         <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3289,10 +3196,10 @@
         <v>114</v>
       </c>
       <c r="D15" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E15" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F15" s="2">
         <v>45550.33333333334</v>
@@ -3301,7 +3208,7 @@
         <v>5000</v>
       </c>
       <c r="H15" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3315,10 +3222,10 @@
         <v>114</v>
       </c>
       <c r="D16" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E16" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F16" s="2">
         <v>45550.625</v>
@@ -3327,7 +3234,7 @@
         <v>5000</v>
       </c>
       <c r="H16" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3341,10 +3248,10 @@
         <v>114</v>
       </c>
       <c r="D17" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E17" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F17" s="2">
         <v>45548.625</v>
@@ -3353,7 +3260,7 @@
         <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3367,10 +3274,10 @@
         <v>111</v>
       </c>
       <c r="D18" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E18" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F18" s="2">
         <v>45629.48958333334</v>
@@ -3379,7 +3286,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3393,10 +3300,10 @@
         <v>111</v>
       </c>
       <c r="D19" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E19" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F19" s="2">
         <v>45628.5625</v>
@@ -3405,7 +3312,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3419,10 +3326,10 @@
         <v>111</v>
       </c>
       <c r="D20" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E20" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F20" s="2">
         <v>45628.59375</v>
@@ -3431,7 +3338,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3445,10 +3352,10 @@
         <v>111</v>
       </c>
       <c r="D21" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E21" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F21" s="2">
         <v>45628.5625</v>
@@ -3457,7 +3364,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3471,10 +3378,10 @@
         <v>111</v>
       </c>
       <c r="D22" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E22" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F22" s="2">
         <v>45628.59375</v>
@@ -3483,7 +3390,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3497,10 +3404,10 @@
         <v>111</v>
       </c>
       <c r="D23" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E23" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F23" s="2">
         <v>45628.69791666666</v>
@@ -3509,7 +3416,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3523,10 +3430,10 @@
         <v>111</v>
       </c>
       <c r="D24" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E24" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F24" s="2">
         <v>45628.72916666666</v>
@@ -3535,7 +3442,7 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3549,10 +3456,10 @@
         <v>111</v>
       </c>
       <c r="D25" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E25" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F25" s="2">
         <v>45629.59375</v>
@@ -3561,7 +3468,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3575,10 +3482,10 @@
         <v>111</v>
       </c>
       <c r="D26" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E26" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F26" s="2">
         <v>45629.625</v>
@@ -3587,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3601,10 +3508,10 @@
         <v>111</v>
       </c>
       <c r="D27" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E27" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F27" s="2">
         <v>45629.66666666666</v>
@@ -3613,7 +3520,7 @@
         <v>10</v>
       </c>
       <c r="H27" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3627,10 +3534,10 @@
         <v>111</v>
       </c>
       <c r="D28" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E28" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F28" s="2">
         <v>45629.69791666666</v>
@@ -3639,7 +3546,7 @@
         <v>10</v>
       </c>
       <c r="H28" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3653,10 +3560,10 @@
         <v>111</v>
       </c>
       <c r="D29" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E29" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F29" s="2">
         <v>45630.52083333334</v>
@@ -3665,7 +3572,7 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3679,10 +3586,10 @@
         <v>111</v>
       </c>
       <c r="D30" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E30" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F30" s="2">
         <v>45631.625</v>
@@ -3691,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3705,10 +3612,10 @@
         <v>111</v>
       </c>
       <c r="D31" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E31" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F31" s="2">
         <v>45632.38541666666</v>
@@ -3717,7 +3624,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3731,10 +3638,10 @@
         <v>111</v>
       </c>
       <c r="D32" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E32" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F32" s="2">
         <v>45632.41666666666</v>
@@ -3743,7 +3650,7 @@
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3757,10 +3664,10 @@
         <v>111</v>
       </c>
       <c r="D33" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E33" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F33" s="2">
         <v>45632.47916666666</v>
@@ -3769,7 +3676,7 @@
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3783,10 +3690,10 @@
         <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E34" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F34" s="2">
         <v>45632.51041666666</v>
@@ -3795,7 +3702,7 @@
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3809,10 +3716,10 @@
         <v>111</v>
       </c>
       <c r="D35" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E35" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F35" s="2">
         <v>45628.52083333334</v>
@@ -3821,7 +3728,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3835,10 +3742,10 @@
         <v>111</v>
       </c>
       <c r="D36" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E36" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F36" s="2">
         <v>45631.41666666666</v>
@@ -3847,7 +3754,7 @@
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3861,10 +3768,10 @@
         <v>111</v>
       </c>
       <c r="D37" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E37" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F37" s="2">
         <v>45628.5625</v>
@@ -3873,7 +3780,7 @@
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3887,10 +3794,10 @@
         <v>111</v>
       </c>
       <c r="D38" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E38" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F38" s="2">
         <v>45628.59375</v>
@@ -3899,7 +3806,7 @@
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3913,10 +3820,10 @@
         <v>111</v>
       </c>
       <c r="D39" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E39" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F39" s="2">
         <v>45632.47916666666</v>
@@ -3925,7 +3832,189 @@
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>263</v>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>243</v>
+      </c>
+      <c r="C40" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" t="s">
+        <v>251</v>
+      </c>
+      <c r="E40" t="s">
+        <v>264</v>
+      </c>
+      <c r="F40" s="2">
+        <v>45631.35416666666</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>243</v>
+      </c>
+      <c r="C41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" t="s">
+        <v>251</v>
+      </c>
+      <c r="E41" t="s">
+        <v>264</v>
+      </c>
+      <c r="F41" s="2">
+        <v>45631.38541666666</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>243</v>
+      </c>
+      <c r="C42" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" t="s">
+        <v>251</v>
+      </c>
+      <c r="E42" t="s">
+        <v>264</v>
+      </c>
+      <c r="F42" s="2">
+        <v>45631.41666666666</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>244</v>
+      </c>
+      <c r="C43" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" t="s">
+        <v>251</v>
+      </c>
+      <c r="E43" t="s">
+        <v>264</v>
+      </c>
+      <c r="F43" s="2">
+        <v>45631.35416666666</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>244</v>
+      </c>
+      <c r="C44" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" t="s">
+        <v>251</v>
+      </c>
+      <c r="E44" t="s">
+        <v>264</v>
+      </c>
+      <c r="F44" s="2">
+        <v>45631.38541666666</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>244</v>
+      </c>
+      <c r="C45" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" t="s">
+        <v>251</v>
+      </c>
+      <c r="E45" t="s">
+        <v>264</v>
+      </c>
+      <c r="F45" s="2">
+        <v>45631.41666666666</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>245</v>
+      </c>
+      <c r="C46" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" t="s">
+        <v>251</v>
+      </c>
+      <c r="E46" t="s">
+        <v>264</v>
+      </c>
+      <c r="F46" s="2">
+        <v>45631.38541666666</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -3943,10 +4032,10 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>222</v>
@@ -3958,10 +4047,10 @@
         <v>224</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3969,25 +4058,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C2" t="s">
         <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3995,25 +4084,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C3" t="s">
         <v>114</v>
       </c>
       <c r="D3" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E3" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F3" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G3">
         <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4021,25 +4110,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C4" t="s">
         <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E4" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F4" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G4">
         <v>146</v>
       </c>
       <c r="H4" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4047,25 +4136,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C5" t="s">
         <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E5" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F5" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G5">
         <v>147</v>
       </c>
       <c r="H5" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4073,25 +4162,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C6" t="s">
         <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E6" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F6" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="G6">
         <v>825</v>
       </c>
       <c r="H6" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4099,25 +4188,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C7" t="s">
         <v>114</v>
       </c>
       <c r="D7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G7">
         <v>1263</v>
       </c>
       <c r="H7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4125,25 +4214,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C8" t="s">
         <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E8" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F8" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G8">
         <v>386</v>
       </c>
       <c r="H8" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4151,1237 +4240,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C9" t="s">
         <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E9" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F9" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G9">
         <v>1312</v>
       </c>
       <c r="H9" t="s">
-        <v>296</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C2" t="s">
-        <v>316</v>
-      </c>
-      <c r="E2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="B3" t="s">
-        <v>314</v>
-      </c>
-      <c r="C3" t="s">
-        <v>316</v>
-      </c>
-      <c r="E3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B4" t="s">
-        <v>314</v>
-      </c>
-      <c r="C4" t="s">
-        <v>316</v>
-      </c>
-      <c r="E4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C5" t="s">
-        <v>316</v>
-      </c>
-      <c r="E5" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C6" t="s">
-        <v>316</v>
-      </c>
-      <c r="E6" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C7" t="s">
-        <v>316</v>
-      </c>
-      <c r="E7" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C8" t="s">
-        <v>316</v>
-      </c>
-      <c r="E8" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C9" t="s">
-        <v>316</v>
-      </c>
-      <c r="E9" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C10" t="s">
-        <v>316</v>
-      </c>
-      <c r="E10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C11" t="s">
-        <v>316</v>
-      </c>
-      <c r="E11" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C12" t="s">
-        <v>316</v>
-      </c>
-      <c r="E12" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C13" t="s">
-        <v>316</v>
-      </c>
-      <c r="E13" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B14" t="s">
-        <v>315</v>
-      </c>
-      <c r="C14" t="s">
-        <v>316</v>
-      </c>
-      <c r="D14" t="s">
-        <v>315</v>
-      </c>
-      <c r="E14" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B15" t="s">
-        <v>315</v>
-      </c>
-      <c r="C15" t="s">
-        <v>316</v>
-      </c>
-      <c r="D15" t="s">
-        <v>315</v>
-      </c>
-      <c r="E15" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B16" t="s">
-        <v>315</v>
-      </c>
-      <c r="C16" t="s">
-        <v>316</v>
-      </c>
-      <c r="D16" t="s">
-        <v>315</v>
-      </c>
-      <c r="E16" t="s">
-        <v>316</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C2" t="s">
-        <v>316</v>
-      </c>
-      <c r="E2" t="s">
-        <v>316</v>
-      </c>
-      <c r="G2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C3" t="s">
-        <v>316</v>
-      </c>
-      <c r="E3" t="s">
-        <v>316</v>
-      </c>
-      <c r="G3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C4" t="s">
-        <v>316</v>
-      </c>
-      <c r="E4" t="s">
-        <v>316</v>
-      </c>
-      <c r="G4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C5" t="s">
-        <v>316</v>
-      </c>
-      <c r="E5" t="s">
-        <v>316</v>
-      </c>
-      <c r="G5" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C6" t="s">
-        <v>316</v>
-      </c>
-      <c r="E6" t="s">
-        <v>316</v>
-      </c>
-      <c r="G6" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C7" t="s">
-        <v>316</v>
-      </c>
-      <c r="E7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G7" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C8" t="s">
-        <v>316</v>
-      </c>
-      <c r="E8" t="s">
-        <v>316</v>
-      </c>
-      <c r="G8" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C9" t="s">
-        <v>316</v>
-      </c>
-      <c r="E9" t="s">
-        <v>316</v>
-      </c>
-      <c r="G9" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C10" t="s">
-        <v>316</v>
-      </c>
-      <c r="E10" t="s">
-        <v>316</v>
-      </c>
-      <c r="G10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C11" t="s">
-        <v>316</v>
-      </c>
-      <c r="E11" t="s">
-        <v>316</v>
-      </c>
-      <c r="G11" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C12" t="s">
-        <v>316</v>
-      </c>
-      <c r="E12" t="s">
-        <v>316</v>
-      </c>
-      <c r="G12" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C13" t="s">
-        <v>316</v>
-      </c>
-      <c r="E13" t="s">
-        <v>316</v>
-      </c>
-      <c r="G13" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B14" t="s">
-        <v>315</v>
-      </c>
-      <c r="C14" t="s">
-        <v>316</v>
-      </c>
-      <c r="E14" t="s">
-        <v>316</v>
-      </c>
-      <c r="G14" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C15" t="s">
-        <v>316</v>
-      </c>
-      <c r="E15" t="s">
-        <v>316</v>
-      </c>
-      <c r="G15" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C16" t="s">
-        <v>316</v>
-      </c>
-      <c r="E16" t="s">
-        <v>316</v>
-      </c>
-      <c r="G16" t="s">
-        <v>316</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:23">
-      <c r="B1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C2" t="s">
-        <v>316</v>
-      </c>
-      <c r="D2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E2" t="s">
-        <v>316</v>
-      </c>
-      <c r="F2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G2" t="s">
-        <v>316</v>
-      </c>
-      <c r="H2" t="s">
-        <v>315</v>
-      </c>
-      <c r="I2" t="s">
-        <v>316</v>
-      </c>
-      <c r="J2" t="s">
-        <v>315</v>
-      </c>
-      <c r="K2" t="s">
-        <v>316</v>
-      </c>
-      <c r="L2" t="s">
-        <v>315</v>
-      </c>
-      <c r="M2" t="s">
-        <v>316</v>
-      </c>
-      <c r="N2" t="s">
-        <v>315</v>
-      </c>
-      <c r="O2" t="s">
-        <v>316</v>
-      </c>
-      <c r="P2" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>316</v>
-      </c>
-      <c r="R2" t="s">
-        <v>315</v>
-      </c>
-      <c r="S2" t="s">
-        <v>316</v>
-      </c>
-      <c r="T2" t="s">
-        <v>315</v>
-      </c>
-      <c r="U2" t="s">
-        <v>316</v>
-      </c>
-      <c r="V2" t="s">
-        <v>315</v>
-      </c>
-      <c r="W2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D3" t="s">
-        <v>315</v>
-      </c>
-      <c r="E3" t="s">
-        <v>316</v>
-      </c>
-      <c r="G3" t="s">
-        <v>316</v>
-      </c>
-      <c r="I3" t="s">
-        <v>316</v>
-      </c>
-      <c r="K3" t="s">
-        <v>316</v>
-      </c>
-      <c r="M3" t="s">
-        <v>316</v>
-      </c>
-      <c r="O3" t="s">
-        <v>316</v>
-      </c>
-      <c r="P3" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>316</v>
-      </c>
-      <c r="R3" t="s">
-        <v>315</v>
-      </c>
-      <c r="S3" t="s">
-        <v>316</v>
-      </c>
-      <c r="U3" t="s">
-        <v>316</v>
-      </c>
-      <c r="V3" t="s">
-        <v>315</v>
-      </c>
-      <c r="W3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C4" t="s">
-        <v>316</v>
-      </c>
-      <c r="D4" t="s">
-        <v>315</v>
-      </c>
-      <c r="E4" t="s">
-        <v>316</v>
-      </c>
-      <c r="F4" t="s">
-        <v>315</v>
-      </c>
-      <c r="G4" t="s">
-        <v>316</v>
-      </c>
-      <c r="I4" t="s">
-        <v>316</v>
-      </c>
-      <c r="K4" t="s">
-        <v>316</v>
-      </c>
-      <c r="M4" t="s">
-        <v>316</v>
-      </c>
-      <c r="O4" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>316</v>
-      </c>
-      <c r="R4" t="s">
-        <v>315</v>
-      </c>
-      <c r="S4" t="s">
-        <v>316</v>
-      </c>
-      <c r="U4" t="s">
-        <v>316</v>
-      </c>
-      <c r="W4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C5" t="s">
-        <v>316</v>
-      </c>
-      <c r="D5" t="s">
-        <v>315</v>
-      </c>
-      <c r="E5" t="s">
-        <v>316</v>
-      </c>
-      <c r="F5" t="s">
-        <v>315</v>
-      </c>
-      <c r="G5" t="s">
-        <v>316</v>
-      </c>
-      <c r="I5" t="s">
-        <v>316</v>
-      </c>
-      <c r="K5" t="s">
-        <v>316</v>
-      </c>
-      <c r="M5" t="s">
-        <v>316</v>
-      </c>
-      <c r="O5" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>316</v>
-      </c>
-      <c r="S5" t="s">
-        <v>316</v>
-      </c>
-      <c r="T5" t="s">
-        <v>315</v>
-      </c>
-      <c r="U5" t="s">
-        <v>316</v>
-      </c>
-      <c r="W5" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C6" t="s">
-        <v>316</v>
-      </c>
-      <c r="D6" t="s">
-        <v>315</v>
-      </c>
-      <c r="E6" t="s">
-        <v>316</v>
-      </c>
-      <c r="F6" t="s">
-        <v>315</v>
-      </c>
-      <c r="G6" t="s">
-        <v>316</v>
-      </c>
-      <c r="I6" t="s">
-        <v>316</v>
-      </c>
-      <c r="K6" t="s">
-        <v>316</v>
-      </c>
-      <c r="M6" t="s">
-        <v>316</v>
-      </c>
-      <c r="O6" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>316</v>
-      </c>
-      <c r="R6" t="s">
-        <v>315</v>
-      </c>
-      <c r="S6" t="s">
-        <v>316</v>
-      </c>
-      <c r="U6" t="s">
-        <v>316</v>
-      </c>
-      <c r="V6" t="s">
-        <v>315</v>
-      </c>
-      <c r="W6" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
-      <c r="A7" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C7" t="s">
-        <v>316</v>
-      </c>
-      <c r="D7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G7" t="s">
-        <v>316</v>
-      </c>
-      <c r="I7" t="s">
-        <v>316</v>
-      </c>
-      <c r="K7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L7" t="s">
-        <v>315</v>
-      </c>
-      <c r="M7" t="s">
-        <v>316</v>
-      </c>
-      <c r="O7" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>316</v>
-      </c>
-      <c r="S7" t="s">
-        <v>316</v>
-      </c>
-      <c r="U7" t="s">
-        <v>316</v>
-      </c>
-      <c r="V7" t="s">
-        <v>315</v>
-      </c>
-      <c r="W7" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="A8" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C8" t="s">
-        <v>316</v>
-      </c>
-      <c r="D8" t="s">
-        <v>315</v>
-      </c>
-      <c r="E8" t="s">
-        <v>316</v>
-      </c>
-      <c r="F8" t="s">
-        <v>315</v>
-      </c>
-      <c r="G8" t="s">
-        <v>316</v>
-      </c>
-      <c r="H8" t="s">
-        <v>315</v>
-      </c>
-      <c r="I8" t="s">
-        <v>316</v>
-      </c>
-      <c r="J8" t="s">
-        <v>315</v>
-      </c>
-      <c r="K8" t="s">
-        <v>316</v>
-      </c>
-      <c r="M8" t="s">
-        <v>316</v>
-      </c>
-      <c r="O8" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>316</v>
-      </c>
-      <c r="R8" t="s">
-        <v>315</v>
-      </c>
-      <c r="S8" t="s">
-        <v>316</v>
-      </c>
-      <c r="U8" t="s">
-        <v>316</v>
-      </c>
-      <c r="W8" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="A9" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C9" t="s">
-        <v>316</v>
-      </c>
-      <c r="D9" t="s">
-        <v>315</v>
-      </c>
-      <c r="E9" t="s">
-        <v>316</v>
-      </c>
-      <c r="F9" t="s">
-        <v>315</v>
-      </c>
-      <c r="G9" t="s">
-        <v>316</v>
-      </c>
-      <c r="I9" t="s">
-        <v>316</v>
-      </c>
-      <c r="K9" t="s">
-        <v>316</v>
-      </c>
-      <c r="L9" t="s">
-        <v>315</v>
-      </c>
-      <c r="M9" t="s">
-        <v>316</v>
-      </c>
-      <c r="O9" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>316</v>
-      </c>
-      <c r="S9" t="s">
-        <v>316</v>
-      </c>
-      <c r="U9" t="s">
-        <v>316</v>
-      </c>
-      <c r="W9" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C10" t="s">
-        <v>316</v>
-      </c>
-      <c r="D10" t="s">
-        <v>315</v>
-      </c>
-      <c r="E10" t="s">
-        <v>316</v>
-      </c>
-      <c r="F10" t="s">
-        <v>315</v>
-      </c>
-      <c r="G10" t="s">
-        <v>316</v>
-      </c>
-      <c r="I10" t="s">
-        <v>316</v>
-      </c>
-      <c r="K10" t="s">
-        <v>316</v>
-      </c>
-      <c r="M10" t="s">
-        <v>316</v>
-      </c>
-      <c r="O10" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>316</v>
-      </c>
-      <c r="R10" t="s">
-        <v>315</v>
-      </c>
-      <c r="S10" t="s">
-        <v>316</v>
-      </c>
-      <c r="U10" t="s">
-        <v>316</v>
-      </c>
-      <c r="V10" t="s">
-        <v>315</v>
-      </c>
-      <c r="W10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="A11" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C11" t="s">
-        <v>316</v>
-      </c>
-      <c r="D11" t="s">
-        <v>315</v>
-      </c>
-      <c r="E11" t="s">
-        <v>316</v>
-      </c>
-      <c r="F11" t="s">
-        <v>315</v>
-      </c>
-      <c r="G11" t="s">
-        <v>316</v>
-      </c>
-      <c r="H11" t="s">
-        <v>315</v>
-      </c>
-      <c r="I11" t="s">
-        <v>316</v>
-      </c>
-      <c r="J11" t="s">
-        <v>315</v>
-      </c>
-      <c r="K11" t="s">
-        <v>316</v>
-      </c>
-      <c r="L11" t="s">
-        <v>315</v>
-      </c>
-      <c r="M11" t="s">
-        <v>316</v>
-      </c>
-      <c r="N11" t="s">
-        <v>315</v>
-      </c>
-      <c r="O11" t="s">
-        <v>316</v>
-      </c>
-      <c r="P11" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>316</v>
-      </c>
-      <c r="R11" t="s">
-        <v>315</v>
-      </c>
-      <c r="S11" t="s">
-        <v>316</v>
-      </c>
-      <c r="T11" t="s">
-        <v>315</v>
-      </c>
-      <c r="U11" t="s">
-        <v>316</v>
-      </c>
-      <c r="V11" t="s">
-        <v>315</v>
-      </c>
-      <c r="W11" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="A12" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C12" t="s">
-        <v>316</v>
-      </c>
-      <c r="D12" t="s">
-        <v>315</v>
-      </c>
-      <c r="E12" t="s">
-        <v>316</v>
-      </c>
-      <c r="F12" t="s">
-        <v>315</v>
-      </c>
-      <c r="G12" t="s">
-        <v>316</v>
-      </c>
-      <c r="H12" t="s">
-        <v>315</v>
-      </c>
-      <c r="I12" t="s">
-        <v>316</v>
-      </c>
-      <c r="J12" t="s">
-        <v>315</v>
-      </c>
-      <c r="K12" t="s">
-        <v>316</v>
-      </c>
-      <c r="L12" t="s">
-        <v>315</v>
-      </c>
-      <c r="M12" t="s">
-        <v>316</v>
-      </c>
-      <c r="N12" t="s">
-        <v>315</v>
-      </c>
-      <c r="O12" t="s">
-        <v>316</v>
-      </c>
-      <c r="P12" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>316</v>
-      </c>
-      <c r="R12" t="s">
-        <v>315</v>
-      </c>
-      <c r="S12" t="s">
-        <v>316</v>
-      </c>
-      <c r="T12" t="s">
-        <v>315</v>
-      </c>
-      <c r="U12" t="s">
-        <v>316</v>
-      </c>
-      <c r="V12" t="s">
-        <v>315</v>
-      </c>
-      <c r="W12" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C13" t="s">
-        <v>316</v>
-      </c>
-      <c r="D13" t="s">
-        <v>315</v>
-      </c>
-      <c r="E13" t="s">
-        <v>316</v>
-      </c>
-      <c r="F13" t="s">
-        <v>315</v>
-      </c>
-      <c r="G13" t="s">
-        <v>316</v>
-      </c>
-      <c r="H13" t="s">
-        <v>315</v>
-      </c>
-      <c r="I13" t="s">
-        <v>316</v>
-      </c>
-      <c r="J13" t="s">
-        <v>315</v>
-      </c>
-      <c r="K13" t="s">
-        <v>316</v>
-      </c>
-      <c r="L13" t="s">
-        <v>315</v>
-      </c>
-      <c r="M13" t="s">
-        <v>316</v>
-      </c>
-      <c r="N13" t="s">
-        <v>315</v>
-      </c>
-      <c r="O13" t="s">
-        <v>316</v>
-      </c>
-      <c r="P13" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>316</v>
-      </c>
-      <c r="R13" t="s">
-        <v>315</v>
-      </c>
-      <c r="S13" t="s">
-        <v>316</v>
-      </c>
-      <c r="T13" t="s">
-        <v>315</v>
-      </c>
-      <c r="U13" t="s">
-        <v>316</v>
-      </c>
-      <c r="V13" t="s">
-        <v>315</v>
-      </c>
-      <c r="W13" t="s">
-        <v>316</v>
       </c>
     </row>
   </sheetData>
